--- a/Docs/SampleExcel/Excel3.xlsx
+++ b/Docs/SampleExcel/Excel3.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
